--- a/image/capabilitystatement2.xlsx
+++ b/image/capabilitystatement2.xlsx
@@ -1432,45 +1432,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="60.86328125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="61.8203125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="82.84375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="84.68359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="60.71484375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="56.18359375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="58.078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="60.53125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="55.6640625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="59.26953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="22.67578125" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="26.6875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="43.69921875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="22.671875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="43.07421875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/capabilitystatement2.xlsx
+++ b/image/capabilitystatement2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3106" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3106" uniqueCount="410">
   <si>
     <t>Path</t>
   </si>
@@ -168,7 +168,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -362,10 +362,6 @@
   </si>
   <si>
     <t>CapabilityStatement2.version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Business version of the capability statement2</t>
@@ -1432,45 +1428,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="61.8203125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="60.86328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="84.68359375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="82.84375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="60.53125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="55.6640625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="59.26953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="60.71484375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="56.18359375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="58.078125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="22.671875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="26.71484375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="43.07421875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="22.67578125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.6875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="43.69921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2729,16 +2725,16 @@
         <v>50</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -2806,10 +2802,10 @@
         <v>40</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AL12" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>40</v>
@@ -2817,7 +2813,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2840,19 +2836,19 @@
         <v>50</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>40</v>
@@ -2901,7 +2897,7 @@
         <v>40</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>41</v>
@@ -2910,7 +2906,7 @@
         <v>49</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>40</v>
@@ -2930,7 +2926,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2953,16 +2949,16 @@
         <v>50</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -3012,7 +3008,7 @@
         <v>40</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>41</v>
@@ -3030,7 +3026,7 @@
         <v>40</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>40</v>
@@ -3041,7 +3037,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3067,13 +3063,13 @@
         <v>68</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3099,52 +3095,52 @@
         <v>40</v>
       </c>
       <c r="W15" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="X15" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="X15" t="s" s="2">
+      <c r="Y15" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="Y15" t="s" s="2">
+      <c r="Z15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="Z15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK15" t="s" s="2">
+      <c r="AL15" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>40</v>
@@ -3152,7 +3148,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3175,19 +3171,19 @@
         <v>50</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>40</v>
@@ -3236,7 +3232,7 @@
         <v>40</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>41</v>
@@ -3254,10 +3250,10 @@
         <v>40</v>
       </c>
       <c r="AK16" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AL16" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>40</v>
@@ -3265,11 +3261,11 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3288,16 +3284,16 @@
         <v>50</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3347,7 +3343,7 @@
         <v>40</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>49</v>
@@ -3365,10 +3361,10 @@
         <v>40</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AL17" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>40</v>
@@ -3376,7 +3372,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3399,19 +3395,19 @@
         <v>50</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>40</v>
@@ -3460,7 +3456,7 @@
         <v>40</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>41</v>
@@ -3478,10 +3474,10 @@
         <v>40</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>40</v>
@@ -3489,7 +3485,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3512,16 +3508,16 @@
         <v>50</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3571,7 +3567,7 @@
         <v>40</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
@@ -3589,7 +3585,7 @@
         <v>40</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>40</v>
@@ -3600,7 +3596,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3623,16 +3619,16 @@
         <v>40</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3682,7 +3678,7 @@
         <v>40</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
@@ -3691,16 +3687,16 @@
         <v>49</v>
       </c>
       <c r="AH20" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>40</v>
@@ -3711,7 +3707,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3734,19 +3730,19 @@
         <v>50</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>40</v>
@@ -3795,7 +3791,7 @@
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
@@ -3813,7 +3809,7 @@
         <v>40</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>40</v>
@@ -3824,7 +3820,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3847,16 +3843,16 @@
         <v>50</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -3882,14 +3878,14 @@
         <v>40</v>
       </c>
       <c r="W22" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="X22" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="X22" t="s" s="2">
+      <c r="Y22" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="Y22" t="s" s="2">
-        <v>188</v>
-      </c>
       <c r="Z22" t="s" s="2">
         <v>40</v>
       </c>
@@ -3906,7 +3902,7 @@
         <v>40</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
@@ -3924,7 +3920,7 @@
         <v>40</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>40</v>
@@ -3935,7 +3931,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3958,16 +3954,16 @@
         <v>40</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4017,7 +4013,7 @@
         <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
@@ -4035,22 +4031,22 @@
         <v>40</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AM23" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>196</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -4069,17 +4065,17 @@
         <v>40</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>40</v>
@@ -4128,7 +4124,7 @@
         <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -4146,18 +4142,18 @@
         <v>40</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4183,14 +4179,14 @@
         <v>68</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>40</v>
@@ -4215,40 +4211,40 @@
         <v>40</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X25" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="Y25" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="Y25" t="s" s="2">
+      <c r="Z25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH25" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="Z25" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>40</v>
@@ -4268,7 +4264,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4291,16 +4287,16 @@
         <v>50</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4350,7 +4346,7 @@
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -4379,7 +4375,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4402,16 +4398,16 @@
         <v>50</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4461,7 +4457,7 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -4490,7 +4486,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4513,13 +4509,13 @@
         <v>50</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4570,7 +4566,7 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
@@ -4579,10 +4575,10 @@
         <v>49</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>40</v>
@@ -4599,7 +4595,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4622,13 +4618,13 @@
         <v>40</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4679,7 +4675,7 @@
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -4708,7 +4704,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4737,7 +4733,7 @@
         <v>95</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M30" t="s" s="2">
         <v>97</v>
@@ -4790,7 +4786,7 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -4819,11 +4815,11 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -4845,10 +4841,10 @@
         <v>94</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="M31" t="s" s="2">
         <v>97</v>
@@ -4903,7 +4899,7 @@
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -4932,7 +4928,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4955,13 +4951,13 @@
         <v>50</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5012,7 +5008,7 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>49</v>
@@ -5041,7 +5037,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5064,16 +5060,16 @@
         <v>50</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5123,7 +5119,7 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -5152,7 +5148,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5175,13 +5171,13 @@
         <v>50</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5232,7 +5228,7 @@
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
@@ -5261,7 +5257,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5284,13 +5280,13 @@
         <v>50</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5341,7 +5337,7 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
@@ -5350,10 +5346,10 @@
         <v>49</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>40</v>
@@ -5370,7 +5366,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5393,13 +5389,13 @@
         <v>40</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5450,7 +5446,7 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
@@ -5479,7 +5475,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5508,7 +5504,7 @@
         <v>95</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M37" t="s" s="2">
         <v>97</v>
@@ -5561,7 +5557,7 @@
         <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
@@ -5590,11 +5586,11 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -5616,10 +5612,10 @@
         <v>94</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="M38" t="s" s="2">
         <v>97</v>
@@ -5674,7 +5670,7 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
@@ -5703,7 +5699,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5726,13 +5722,13 @@
         <v>50</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5783,7 +5779,7 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>49</v>
@@ -5812,7 +5808,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5835,13 +5831,13 @@
         <v>50</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5892,7 +5888,7 @@
         <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
@@ -5921,7 +5917,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5944,13 +5940,13 @@
         <v>50</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6001,7 +5997,7 @@
         <v>40</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
@@ -6030,7 +6026,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6056,13 +6052,13 @@
         <v>68</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6088,14 +6084,14 @@
         <v>40</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X42" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="Y42" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="Y42" t="s" s="2">
-        <v>269</v>
-      </c>
       <c r="Z42" t="s" s="2">
         <v>40</v>
       </c>
@@ -6112,7 +6108,7 @@
         <v>40</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>49</v>
@@ -6141,7 +6137,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6167,13 +6163,13 @@
         <v>68</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6199,14 +6195,14 @@
         <v>40</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X43" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="Y43" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="Y43" t="s" s="2">
-        <v>275</v>
-      </c>
       <c r="Z43" t="s" s="2">
         <v>40</v>
       </c>
@@ -6223,7 +6219,7 @@
         <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>49</v>
@@ -6252,7 +6248,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6278,13 +6274,13 @@
         <v>68</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6310,31 +6306,31 @@
         <v>40</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X44" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="Y44" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="Y44" t="s" s="2">
+      <c r="Z44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE44" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
@@ -6363,7 +6359,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6386,13 +6382,13 @@
         <v>50</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6443,7 +6439,7 @@
         <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
@@ -6472,7 +6468,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6495,16 +6491,16 @@
         <v>50</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -6554,7 +6550,7 @@
         <v>40</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
@@ -6563,10 +6559,10 @@
         <v>42</v>
       </c>
       <c r="AH46" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AI46" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>40</v>
@@ -6583,7 +6579,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6606,13 +6602,13 @@
         <v>40</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6663,7 +6659,7 @@
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
@@ -6692,7 +6688,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6721,7 +6717,7 @@
         <v>95</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M48" t="s" s="2">
         <v>97</v>
@@ -6774,7 +6770,7 @@
         <v>40</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>41</v>
@@ -6803,11 +6799,11 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -6829,10 +6825,10 @@
         <v>94</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="M49" t="s" s="2">
         <v>97</v>
@@ -6887,7 +6883,7 @@
         <v>40</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>41</v>
@@ -6916,7 +6912,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6942,10 +6938,10 @@
         <v>68</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -6972,14 +6968,14 @@
         <v>40</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X50" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="Y50" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="Y50" t="s" s="2">
-        <v>297</v>
-      </c>
       <c r="Z50" t="s" s="2">
         <v>40</v>
       </c>
@@ -6996,7 +6992,7 @@
         <v>40</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>49</v>
@@ -7025,7 +7021,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7048,13 +7044,13 @@
         <v>40</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7105,7 +7101,7 @@
         <v>40</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
@@ -7134,7 +7130,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7157,16 +7153,16 @@
         <v>50</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7216,7 +7212,7 @@
         <v>40</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>41</v>
@@ -7228,7 +7224,7 @@
         <v>40</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>40</v>
@@ -7245,7 +7241,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7268,13 +7264,13 @@
         <v>40</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7325,7 +7321,7 @@
         <v>40</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>41</v>
@@ -7354,7 +7350,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7383,7 +7379,7 @@
         <v>95</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M54" t="s" s="2">
         <v>97</v>
@@ -7436,7 +7432,7 @@
         <v>40</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
@@ -7465,11 +7461,11 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -7491,10 +7487,10 @@
         <v>94</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="M55" t="s" s="2">
         <v>97</v>
@@ -7549,7 +7545,7 @@
         <v>40</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
@@ -7578,7 +7574,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7604,10 +7600,10 @@
         <v>68</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7634,14 +7630,14 @@
         <v>40</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X56" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="Y56" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="Y56" t="s" s="2">
-        <v>313</v>
-      </c>
       <c r="Z56" t="s" s="2">
         <v>40</v>
       </c>
@@ -7658,7 +7654,7 @@
         <v>40</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>49</v>
@@ -7687,7 +7683,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7710,16 +7706,16 @@
         <v>50</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="K57" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="K57" t="s" s="2">
+      <c r="L57" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -7769,7 +7765,7 @@
         <v>40</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
@@ -7798,7 +7794,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7821,16 +7817,16 @@
         <v>50</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -7880,7 +7876,7 @@
         <v>40</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
@@ -7909,7 +7905,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7932,13 +7928,13 @@
         <v>40</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -7989,7 +7985,7 @@
         <v>40</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>41</v>
@@ -8018,7 +8014,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8041,16 +8037,16 @@
         <v>40</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -8100,7 +8096,7 @@
         <v>40</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
@@ -8112,7 +8108,7 @@
         <v>40</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>40</v>
@@ -8129,7 +8125,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8152,13 +8148,13 @@
         <v>40</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8209,7 +8205,7 @@
         <v>40</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>41</v>
@@ -8238,7 +8234,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8267,7 +8263,7 @@
         <v>95</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M62" t="s" s="2">
         <v>97</v>
@@ -8320,7 +8316,7 @@
         <v>40</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>41</v>
@@ -8349,11 +8345,11 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -8375,10 +8371,10 @@
         <v>94</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="M63" t="s" s="2">
         <v>97</v>
@@ -8433,7 +8429,7 @@
         <v>40</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>41</v>
@@ -8462,7 +8458,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8488,10 +8484,10 @@
         <v>68</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -8518,14 +8514,14 @@
         <v>40</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X64" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="Y64" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="Y64" t="s" s="2">
-        <v>337</v>
-      </c>
       <c r="Z64" t="s" s="2">
         <v>40</v>
       </c>
@@ -8542,7 +8538,7 @@
         <v>40</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>49</v>
@@ -8571,7 +8567,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8594,17 +8590,17 @@
         <v>40</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>40</v>
@@ -8653,7 +8649,7 @@
         <v>40</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>41</v>
@@ -8682,7 +8678,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8705,16 +8701,16 @@
         <v>40</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -8764,7 +8760,7 @@
         <v>40</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>41</v>
@@ -8776,7 +8772,7 @@
         <v>40</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>40</v>
@@ -8793,7 +8789,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8816,13 +8812,13 @@
         <v>40</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -8873,7 +8869,7 @@
         <v>40</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>41</v>
@@ -8902,7 +8898,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8931,7 +8927,7 @@
         <v>95</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M68" t="s" s="2">
         <v>97</v>
@@ -8984,7 +8980,7 @@
         <v>40</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>41</v>
@@ -9013,11 +9009,11 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -9039,10 +9035,10 @@
         <v>94</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="M69" t="s" s="2">
         <v>97</v>
@@ -9097,7 +9093,7 @@
         <v>40</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>41</v>
@@ -9126,7 +9122,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9149,16 +9145,16 @@
         <v>40</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="M70" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -9208,7 +9204,7 @@
         <v>40</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>49</v>
@@ -9237,7 +9233,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9260,16 +9256,16 @@
         <v>40</v>
       </c>
       <c r="J71" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="K71" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="K71" t="s" s="2">
+      <c r="L71" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="M71" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -9319,7 +9315,7 @@
         <v>40</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>41</v>
@@ -9348,7 +9344,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9374,13 +9370,13 @@
         <v>68</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="M72" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -9406,14 +9402,14 @@
         <v>40</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X72" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="Y72" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="Y72" t="s" s="2">
-        <v>363</v>
-      </c>
       <c r="Z72" t="s" s="2">
         <v>40</v>
       </c>
@@ -9430,7 +9426,7 @@
         <v>40</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>49</v>
@@ -9459,7 +9455,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9482,13 +9478,13 @@
         <v>40</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -9539,7 +9535,7 @@
         <v>40</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>41</v>
@@ -9568,7 +9564,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9591,16 +9587,16 @@
         <v>50</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
@@ -9650,7 +9646,7 @@
         <v>40</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>41</v>
@@ -9662,7 +9658,7 @@
         <v>40</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>40</v>
@@ -9679,7 +9675,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9702,13 +9698,13 @@
         <v>40</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -9759,7 +9755,7 @@
         <v>40</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>41</v>
@@ -9788,7 +9784,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9817,7 +9813,7 @@
         <v>95</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M76" t="s" s="2">
         <v>97</v>
@@ -9870,7 +9866,7 @@
         <v>40</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>41</v>
@@ -9899,11 +9895,11 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -9925,10 +9921,10 @@
         <v>94</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="M77" t="s" s="2">
         <v>97</v>
@@ -9983,7 +9979,7 @@
         <v>40</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>41</v>
@@ -10012,7 +10008,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10035,16 +10031,16 @@
         <v>50</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="L78" t="s" s="2">
+      <c r="M78" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -10094,7 +10090,7 @@
         <v>40</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>49</v>
@@ -10123,7 +10119,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10146,16 +10142,16 @@
         <v>50</v>
       </c>
       <c r="J79" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="K79" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="K79" t="s" s="2">
+      <c r="L79" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="L79" t="s" s="2">
+      <c r="M79" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
@@ -10205,7 +10201,7 @@
         <v>40</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>49</v>
@@ -10234,7 +10230,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10257,13 +10253,13 @@
         <v>40</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -10314,7 +10310,7 @@
         <v>40</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>41</v>
@@ -10343,7 +10339,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10366,13 +10362,13 @@
         <v>40</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -10423,7 +10419,7 @@
         <v>40</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>41</v>
@@ -10435,7 +10431,7 @@
         <v>40</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>40</v>
@@ -10452,7 +10448,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10475,13 +10471,13 @@
         <v>40</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -10532,7 +10528,7 @@
         <v>40</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>41</v>
@@ -10561,7 +10557,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10590,7 +10586,7 @@
         <v>95</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M83" t="s" s="2">
         <v>97</v>
@@ -10643,7 +10639,7 @@
         <v>40</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>41</v>
@@ -10672,11 +10668,11 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -10698,10 +10694,10 @@
         <v>94</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="M84" t="s" s="2">
         <v>97</v>
@@ -10756,7 +10752,7 @@
         <v>40</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>41</v>
@@ -10785,7 +10781,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10811,10 +10807,10 @@
         <v>68</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="L85" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -10841,14 +10837,14 @@
         <v>40</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X85" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="Y85" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="Y85" t="s" s="2">
-        <v>395</v>
-      </c>
       <c r="Z85" t="s" s="2">
         <v>40</v>
       </c>
@@ -10865,7 +10861,7 @@
         <v>40</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>49</v>
@@ -10894,7 +10890,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -10917,13 +10913,13 @@
         <v>40</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -10974,7 +10970,7 @@
         <v>40</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>41</v>
@@ -11003,7 +10999,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11029,13 +11025,13 @@
         <v>40</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="L87" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="L87" t="s" s="2">
+      <c r="M87" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
@@ -11085,7 +11081,7 @@
         <v>40</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>41</v>
@@ -11114,7 +11110,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11140,13 +11136,13 @@
         <v>40</v>
       </c>
       <c r="K88" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="L88" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="L88" t="s" s="2">
+      <c r="M88" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
@@ -11196,7 +11192,7 @@
         <v>40</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>41</v>
@@ -11225,7 +11221,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11248,16 +11244,16 @@
         <v>40</v>
       </c>
       <c r="J89" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="K89" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="K89" t="s" s="2">
+      <c r="L89" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="L89" t="s" s="2">
+      <c r="M89" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
@@ -11307,7 +11303,7 @@
         <v>40</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>41</v>
